--- a/natmiOut/OldD2/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H2">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I2">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J2">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>65.26247052459017</v>
+        <v>73.02894786466</v>
       </c>
       <c r="R2">
-        <v>65.26247052459017</v>
+        <v>292.11579145864</v>
       </c>
       <c r="S2">
-        <v>0.001221908811028159</v>
+        <v>0.001212273452459306</v>
       </c>
       <c r="T2">
-        <v>0.001221908811028159</v>
+        <v>0.0006056311328238842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H3">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I3">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J3">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>15.82538302255313</v>
+        <v>18.59364876747333</v>
       </c>
       <c r="R3">
-        <v>15.82538302255313</v>
+        <v>111.56189260484</v>
       </c>
       <c r="S3">
-        <v>0.0002962985433698387</v>
+        <v>0.0003086527663924951</v>
       </c>
       <c r="T3">
-        <v>0.0002962985433698387</v>
+        <v>0.0002312964837021219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H4">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I4">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J4">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>46.72832851450668</v>
+        <v>55.82757672337</v>
       </c>
       <c r="R4">
-        <v>46.72832851450668</v>
+        <v>334.96546034022</v>
       </c>
       <c r="S4">
-        <v>0.0008748941907582285</v>
+        <v>0.0009267323596431989</v>
       </c>
       <c r="T4">
-        <v>0.0008748941907582285</v>
+        <v>0.0006944695122086357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H5">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I5">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J5">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>43.15572724258332</v>
+        <v>48.34480131499</v>
       </c>
       <c r="R5">
-        <v>43.15572724258332</v>
+        <v>290.06880788994</v>
       </c>
       <c r="S5">
-        <v>0.0008080044003876858</v>
+        <v>0.0008025190135176947</v>
       </c>
       <c r="T5">
-        <v>0.0008080044003876858</v>
+        <v>0.0006013872096474161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H6">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I6">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J6">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>48.88861932024121</v>
+        <v>56.47382007032667</v>
       </c>
       <c r="R6">
-        <v>48.88861932024121</v>
+        <v>338.84292042196</v>
       </c>
       <c r="S6">
-        <v>0.000915341301458942</v>
+        <v>0.0009374599365322414</v>
       </c>
       <c r="T6">
-        <v>0.000915341301458942</v>
+        <v>0.0007025084837755533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H7">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I7">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J7">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>11.73590707817165</v>
+        <v>13.115039400405</v>
       </c>
       <c r="R7">
-        <v>11.73590707817165</v>
+        <v>52.46015760162</v>
       </c>
       <c r="S7">
-        <v>0.0002197313118696976</v>
+        <v>0.0002177083821956937</v>
       </c>
       <c r="T7">
-        <v>0.0002197313118696976</v>
+        <v>0.0001087633931659154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H8">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J8">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>10731.71616983565</v>
+        <v>11637.28322750757</v>
       </c>
       <c r="R8">
-        <v>10731.71616983565</v>
+        <v>69823.6993650454</v>
       </c>
       <c r="S8">
-        <v>0.2009298520262828</v>
+        <v>0.1931777730332641</v>
       </c>
       <c r="T8">
-        <v>0.2009298520262828</v>
+        <v>0.1447624790609588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H9">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J9">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>2602.315197568021</v>
+        <v>2962.928581976656</v>
       </c>
       <c r="R9">
-        <v>2602.315197568021</v>
+        <v>26666.3572377899</v>
       </c>
       <c r="S9">
-        <v>0.04872313051315975</v>
+        <v>0.04918432712627603</v>
       </c>
       <c r="T9">
-        <v>0.04872313051315975</v>
+        <v>0.0552862139412813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H10">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J10">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>7683.974490661879</v>
+        <v>8896.216380376716</v>
       </c>
       <c r="R10">
-        <v>7683.974490661879</v>
+        <v>80065.94742339045</v>
       </c>
       <c r="S10">
-        <v>0.1438670043960049</v>
+        <v>0.147676329190047</v>
       </c>
       <c r="T10">
-        <v>0.1438670043960049</v>
+        <v>0.165997292363125</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H11">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J11">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>7096.498372609786</v>
+        <v>7703.823783998017</v>
       </c>
       <c r="R11">
-        <v>7096.498372609786</v>
+        <v>69334.41405598215</v>
       </c>
       <c r="S11">
-        <v>0.1328676928598902</v>
+        <v>0.1278827277242585</v>
       </c>
       <c r="T11">
-        <v>0.1328676928598902</v>
+        <v>0.1437480648297993</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H12">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J12">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>8039.211238291793</v>
+        <v>8999.196323020344</v>
       </c>
       <c r="R12">
-        <v>8039.211238291793</v>
+        <v>80992.7669071831</v>
       </c>
       <c r="S12">
-        <v>0.1505180997106763</v>
+        <v>0.1493857862512936</v>
       </c>
       <c r="T12">
-        <v>0.1505180997106763</v>
+        <v>0.1679188274197878</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H13">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J13">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>1929.84456068129</v>
+        <v>2089.903148067825</v>
       </c>
       <c r="R13">
-        <v>1929.84456068129</v>
+        <v>12539.41888840695</v>
       </c>
       <c r="S13">
-        <v>0.0361324671538864</v>
+        <v>0.03469218958636779</v>
       </c>
       <c r="T13">
-        <v>0.0361324671538864</v>
+        <v>0.02599743898958084</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H14">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I14">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J14">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>1418.158229897671</v>
+        <v>1893.075103416341</v>
       </c>
       <c r="R14">
-        <v>1418.158229897671</v>
+        <v>11358.45062049804</v>
       </c>
       <c r="S14">
-        <v>0.02655216731170388</v>
+        <v>0.03142486313285418</v>
       </c>
       <c r="T14">
-        <v>0.02655216731170388</v>
+        <v>0.02354898816687343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H15">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I15">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J15">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>343.8867237834701</v>
+        <v>481.9893287878683</v>
       </c>
       <c r="R15">
-        <v>343.8867237834701</v>
+        <v>4337.903959090814</v>
       </c>
       <c r="S15">
-        <v>0.006438588892038691</v>
+        <v>0.00800097611622537</v>
       </c>
       <c r="T15">
-        <v>0.006438588892038691</v>
+        <v>0.008993590095581523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H16">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I16">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J16">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>1015.409976354489</v>
+        <v>1447.17675208656</v>
       </c>
       <c r="R16">
-        <v>1015.409976354489</v>
+        <v>13024.59076877904</v>
       </c>
       <c r="S16">
-        <v>0.01901151438093273</v>
+        <v>0.02402299374245526</v>
       </c>
       <c r="T16">
-        <v>0.01901151438093273</v>
+        <v>0.02700332502558325</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H17">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I17">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J17">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>937.7770909427733</v>
+        <v>1253.206330161378</v>
       </c>
       <c r="R17">
-        <v>937.7770909427733</v>
+        <v>11278.8569714524</v>
       </c>
       <c r="S17">
-        <v>0.01755799437245599</v>
+        <v>0.02080310354907593</v>
       </c>
       <c r="T17">
-        <v>0.01755799437245599</v>
+        <v>0.02338397007046585</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H18">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I18">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J18">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>1062.353252643277</v>
+        <v>1463.928837754552</v>
       </c>
       <c r="R18">
-        <v>1062.353252643277</v>
+        <v>13175.35953979097</v>
       </c>
       <c r="S18">
-        <v>0.01989043303747035</v>
+        <v>0.02430107673998477</v>
       </c>
       <c r="T18">
-        <v>0.01989043303747035</v>
+        <v>0.0273159074475279</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H19">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I19">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J19">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N19">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O19">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P19">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q19">
-        <v>255.0221141559821</v>
+        <v>339.9714126409546</v>
       </c>
       <c r="R19">
-        <v>255.0221141559821</v>
+        <v>2039.828475845727</v>
       </c>
       <c r="S19">
-        <v>0.004774777384144702</v>
+        <v>0.005643492480591497</v>
       </c>
       <c r="T19">
-        <v>0.004774777384144702</v>
+        <v>0.004229088829549909</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H20">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I20">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J20">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N20">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O20">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P20">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q20">
-        <v>2665.864279067718</v>
+        <v>2798.821929023195</v>
       </c>
       <c r="R20">
-        <v>2665.864279067718</v>
+        <v>16792.93157413917</v>
       </c>
       <c r="S20">
-        <v>0.0499129595526223</v>
+        <v>0.04646017260174255</v>
       </c>
       <c r="T20">
-        <v>0.0499129595526223</v>
+        <v>0.03481606428018072</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H21">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I21">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J21">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N21">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P21">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q21">
-        <v>646.4407945833588</v>
+        <v>712.5984069687343</v>
       </c>
       <c r="R21">
-        <v>646.4407945833588</v>
+        <v>6413.385662718609</v>
       </c>
       <c r="S21">
-        <v>0.0121033067911799</v>
+        <v>0.01182906445035925</v>
       </c>
       <c r="T21">
-        <v>0.0121033067911799</v>
+        <v>0.01329659723205575</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H22">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I22">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J22">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N22">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O22">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P22">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q22">
-        <v>1908.775147585437</v>
+        <v>2139.582323808963</v>
       </c>
       <c r="R22">
-        <v>1908.775147585437</v>
+        <v>19256.24091428066</v>
       </c>
       <c r="S22">
-        <v>0.03573798466957232</v>
+        <v>0.03551685908595653</v>
       </c>
       <c r="T22">
-        <v>0.03573798466957232</v>
+        <v>0.03992313780987991</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H23">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I23">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J23">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N23">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O23">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P23">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q23">
-        <v>1762.840278163296</v>
+        <v>1852.806236855859</v>
       </c>
       <c r="R23">
-        <v>1762.840278163296</v>
+        <v>16675.25613170273</v>
       </c>
       <c r="S23">
-        <v>0.0330056470588475</v>
+        <v>0.03075640385308518</v>
       </c>
       <c r="T23">
-        <v>0.0330056470588475</v>
+        <v>0.03457209283600625</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H24">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I24">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J24">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N24">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O24">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P24">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q24">
-        <v>1997.019463884131</v>
+        <v>2164.349489485506</v>
       </c>
       <c r="R24">
-        <v>1997.019463884131</v>
+        <v>19479.14540536955</v>
       </c>
       <c r="S24">
-        <v>0.03739018242950698</v>
+        <v>0.03592799163435333</v>
       </c>
       <c r="T24">
-        <v>0.03739018242950698</v>
+        <v>0.04038527612419562</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H25">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I25">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J25">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N25">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O25">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P25">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q25">
-        <v>479.3924473080963</v>
+        <v>502.6316405637241</v>
       </c>
       <c r="R25">
-        <v>479.3924473080963</v>
+        <v>3015.789843382344</v>
       </c>
       <c r="S25">
-        <v>0.008975661671977345</v>
+        <v>0.008343636489884782</v>
       </c>
       <c r="T25">
-        <v>0.008975661671977345</v>
+        <v>0.006252507644609885</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H26">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I26">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J26">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N26">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O26">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P26">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q26">
-        <v>124.8340214542674</v>
+        <v>127.235373730112</v>
       </c>
       <c r="R26">
-        <v>124.8340214542674</v>
+        <v>763.412242380672</v>
       </c>
       <c r="S26">
-        <v>0.002337266571506419</v>
+        <v>0.002112094865074653</v>
       </c>
       <c r="T26">
-        <v>0.002337266571506419</v>
+        <v>0.001582749836480821</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H27">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I27">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J27">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N27">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P27">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q27">
-        <v>30.2707848458638</v>
+        <v>32.39496006871467</v>
       </c>
       <c r="R27">
-        <v>30.2707848458638</v>
+        <v>291.554640618432</v>
       </c>
       <c r="S27">
-        <v>0.0005667597077245477</v>
+        <v>0.0005377531955898034</v>
       </c>
       <c r="T27">
-        <v>0.0005667597077245477</v>
+        <v>0.0006044677228714704</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H28">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I28">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J28">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N28">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O28">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P28">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q28">
-        <v>89.38192375209067</v>
+        <v>97.266122497184</v>
       </c>
       <c r="R28">
-        <v>89.38192375209067</v>
+        <v>875.395102474656</v>
       </c>
       <c r="S28">
-        <v>0.00167349717688323</v>
+        <v>0.001614608200922079</v>
       </c>
       <c r="T28">
-        <v>0.00167349717688323</v>
+        <v>0.001814919094010264</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H29">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I29">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J29">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N29">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O29">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P29">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q29">
-        <v>82.54825379994287</v>
+        <v>84.229186412768</v>
       </c>
       <c r="R29">
-        <v>82.54825379994287</v>
+        <v>758.062677714912</v>
       </c>
       <c r="S29">
-        <v>0.001545550418829663</v>
+        <v>0.001398196326197614</v>
       </c>
       <c r="T29">
-        <v>0.001545550418829663</v>
+        <v>0.001571658813662571</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H30">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I30">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J30">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N30">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O30">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P30">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q30">
-        <v>93.51412694058182</v>
+        <v>98.39204606824534</v>
       </c>
       <c r="R30">
-        <v>93.51412694058182</v>
+        <v>885.528414614208</v>
       </c>
       <c r="S30">
-        <v>0.001750864390296849</v>
+        <v>0.001633298423013535</v>
       </c>
       <c r="T30">
-        <v>0.001750864390296849</v>
+        <v>0.001835928055147525</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H31">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I31">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J31">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N31">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O31">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P31">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q31">
-        <v>22.44843727498421</v>
+        <v>22.849801186896</v>
       </c>
       <c r="R31">
-        <v>22.44843727498421</v>
+        <v>137.098807121376</v>
       </c>
       <c r="S31">
-        <v>0.0004203019450478949</v>
+        <v>0.000379304483808013</v>
       </c>
       <c r="T31">
-        <v>0.0004203019450478949</v>
+        <v>0.0002842410725250996</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H32">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I32">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J32">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N32">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O32">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P32">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q32">
-        <v>44.85281139560239</v>
+        <v>47.902429190894</v>
       </c>
       <c r="R32">
-        <v>44.85281139560239</v>
+        <v>191.609716763576</v>
       </c>
       <c r="S32">
-        <v>0.0008397788959432737</v>
+        <v>0.0007951756791574154</v>
       </c>
       <c r="T32">
-        <v>0.0008397788959432737</v>
+        <v>0.0003972562018784892</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H33">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I33">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J33">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N33">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P33">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q33">
-        <v>10.87628026135318</v>
+        <v>12.19627243069267</v>
       </c>
       <c r="R33">
-        <v>10.87628026135318</v>
+        <v>73.17763458415601</v>
       </c>
       <c r="S33">
-        <v>0.0002036365245712179</v>
+        <v>0.0002024569395973028</v>
       </c>
       <c r="T33">
-        <v>0.0002036365245712179</v>
+        <v>0.0001517160489998694</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H34">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I34">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J34">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N34">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O34">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P34">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q34">
-        <v>32.11488760455685</v>
+        <v>36.61940393618301</v>
       </c>
       <c r="R34">
-        <v>32.11488760455685</v>
+        <v>219.716423617098</v>
       </c>
       <c r="S34">
-        <v>0.0006012868316776524</v>
+        <v>0.0006078785541178648</v>
       </c>
       <c r="T34">
-        <v>0.0006012868316776524</v>
+        <v>0.0004555286308582744</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H35">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I35">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J35">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N35">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O35">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P35">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q35">
-        <v>29.65955286541469</v>
+        <v>31.711170562541</v>
       </c>
       <c r="R35">
-        <v>29.65955286541469</v>
+        <v>190.267023375246</v>
       </c>
       <c r="S35">
-        <v>0.0005553156153313315</v>
+        <v>0.0005264023560988551</v>
       </c>
       <c r="T35">
-        <v>0.0005553156153313315</v>
+        <v>0.0003944724533048535</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H36">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I36">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J36">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N36">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O36">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P36">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q36">
-        <v>33.5995864719213</v>
+        <v>37.04329921432733</v>
       </c>
       <c r="R36">
-        <v>33.5995864719213</v>
+        <v>222.259795285964</v>
       </c>
       <c r="S36">
-        <v>0.0006290848389117273</v>
+        <v>0.0006149151746271671</v>
       </c>
       <c r="T36">
-        <v>0.0006290848389117273</v>
+        <v>0.0004608016941778437</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H37">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I37">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J37">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N37">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O37">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P37">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q37">
-        <v>8.065714069699688</v>
+        <v>8.602646821339501</v>
       </c>
       <c r="R37">
-        <v>8.065714069699688</v>
+        <v>34.41058728535801</v>
       </c>
       <c r="S37">
-        <v>0.0001510143120506964</v>
+        <v>0.0001428031029793868</v>
       </c>
       <c r="T37">
-        <v>0.0001510143120506964</v>
+        <v>7.13419937166157E-05</v>
       </c>
     </row>
   </sheetData>
